--- a/team_specific_matrix/Dallas Christian_B.xlsx
+++ b/team_specific_matrix/Dallas Christian_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1666666666666667</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.4</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.4</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05263157894736842</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2631578947368421</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.05263157894736842</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1052631578947368</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.1052631578947368</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S8">
-        <v>0.4210526315789473</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1333333333333333</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06666666666666667</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1333333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.06666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
-        <v>0.5333333333333333</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1290322580645161</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01612903225806452</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E10">
-        <v>0.008064516129032258</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="F10">
-        <v>0.02419354838709677</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1048387096774194</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3467741935483871</v>
+        <v>0.337037037037037</v>
       </c>
       <c r="R10">
-        <v>0.09677419354838709</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S10">
-        <v>0.2741935483870968</v>
+        <v>0.262962962962963</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2307692307692308</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K11">
-        <v>0.3076923076923077</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L11">
-        <v>0.3846153846153846</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="J15">
-        <v>0.4285714285714285</v>
+        <v>0.46875</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.07142857142857142</v>
+        <v>0.03125</v>
       </c>
       <c r="O15">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.07142857142857142</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09523809523809523</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="J16">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="K16">
-        <v>0.09523809523809523</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2380952380952381</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1568627450980392</v>
+        <v>0.1</v>
       </c>
       <c r="I17">
-        <v>0.07843137254901961</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="J17">
-        <v>0.5882352941176471</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="K17">
-        <v>0.0196078431372549</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0392156862745098</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1176470588235294</v>
+        <v>0.1090909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.06666666666666667</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1333333333333333</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.08749999999999999</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="I19">
-        <v>0.1125</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="K19">
-        <v>0.075</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.175</v>
+        <v>0.125748502994012</v>
       </c>
     </row>
   </sheetData>
